--- a/Plan de Calidad_mar272017/Criterios_Aceptacion_Entregables.xlsx
+++ b/Plan de Calidad_mar272017/Criterios_Aceptacion_Entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\datos hp20140125\apaa\maestrias\OBS EAE UB\Programa MDMIT\modulos\TFM\evaluacion\actividades_evaluacion\entrega3_mar102017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria\Programa OBS\21. Trabajo Final de Máster\Tesis Final\TFG_OBS\Plan de Calidad_mar272017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="97">
   <si>
     <t>Presentación Kickoff</t>
   </si>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,6 +674,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,12 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +791,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -822,6 +843,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1004,14 +1042,14 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="58.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="35.140625" style="8" customWidth="1"/>
     <col min="6" max="8" width="27.42578125" style="8" customWidth="1"/>
@@ -1037,10 +1075,10 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
@@ -1058,10 +1096,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1081,8 +1119,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1102,10 +1140,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1125,8 +1163,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1146,8 +1184,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1167,10 +1205,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1190,8 +1228,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1211,8 +1249,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1232,8 +1270,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1253,8 +1291,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1272,8 +1310,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1293,8 +1331,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1306,8 +1344,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1327,8 +1365,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1348,10 +1386,10 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -1371,8 +1409,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -1392,8 +1430,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -1413,8 +1451,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -1434,8 +1472,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -1455,8 +1493,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -1476,8 +1514,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -1497,8 +1535,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -1518,8 +1556,8 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -1539,8 +1577,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -1560,8 +1598,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -1581,8 +1619,8 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -1602,8 +1640,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -1623,10 +1661,10 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -1646,8 +1684,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -1667,8 +1705,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -1688,8 +1726,8 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -1709,8 +1747,8 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -1730,8 +1768,8 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -1751,8 +1789,8 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -1772,8 +1810,8 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B38" s="20"/>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -1793,8 +1831,8 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -1814,8 +1852,8 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -1835,8 +1873,8 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -1856,8 +1894,8 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -1903,13 +1941,908 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31:B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LImplementación del Sistema de Gerencia de Aprendizaje (LMS)
+Pacific Rubiales Energy
+Plan de Calidad</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1923,4 +2856,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>